--- a/biology/Zoologie/Idotea/Idotea.xlsx
+++ b/biology/Zoologie/Idotea/Idotea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idotée
-Idotea (les idotées) est un genre de crustacés isopodes, de la famille des Idotéidés. Ils jouent un rôle dans la reproduction sexuée des algues rouges en transportant les cellules mâles, d'une manière semblable aux insectes pollinisateurs pour les fleurs[1].
+Idotea (les idotées) est un genre de crustacés isopodes, de la famille des Idotéidés. Ils jouent un rôle dans la reproduction sexuée des algues rouges en transportant les cellules mâles, d'une manière semblable aux insectes pollinisateurs pour les fleurs.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxinomie du genre reste en grande partie incertaine, et nombre de ces espèces peuvent être synonymes ou destinées à être déplacées dans la classification.
-Selon World Register of Marine Species                               (28 oct. 2010)[2] :
+Selon World Register of Marine Species                               (28 oct. 2010) :
 Idotea aleutica Gurjanova, 1933
 Idotea balthica (Pallas, 1772)
 Idotea brevicauda Dana, 1853
